--- a/src-tauri/templates/中层管理人员名册.xlsx
+++ b/src-tauri/templates/中层管理人员名册.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvenx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dev\CadreManagementSystem\src-tauri\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F0D860F-5FFD-4EC2-BB88-50D7BED4FA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56673190-BB98-46D0-8D07-044A38CB5705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{FD82AA73-3241-42E5-9548-962504972420}"/>
+    <workbookView xWindow="4470" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{FD82AA73-3241-42E5-9548-962504972420}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
-    <t>运营分公司基层管理人员名册</t>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
@@ -94,13 +91,17 @@
   </si>
   <si>
     <t>毕业院校系及专业</t>
+  </si>
+  <si>
+    <t>运营分公司中层管理人员名册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +139,13 @@
       <name val="华文中宋"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <name val="华文中宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,28 +216,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -251,9 +263,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -291,7 +303,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -397,7 +409,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -550,87 +562,87 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" ht="33" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="31.5" x14ac:dyDescent="0.2">
@@ -643,35 +655,27 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="6"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -682,6 +686,14 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
